--- a/about/Tables.xlsx
+++ b/about/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonastochtermann/Documents/reactProjects/astro-clock/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9740FDC8-8AD0-1942-B9FB-8144C69E4BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB2F4EE2-7EC6-4D46-A947-90E9B8ECC1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27020" windowHeight="14240" xr2:uid="{4C085361-8A32-0448-A64D-A698D9A2BF64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27020" windowHeight="14240" activeTab="10" xr2:uid="{4C085361-8A32-0448-A64D-A698D9A2BF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Stars" sheetId="10" r:id="rId1"/>
@@ -5506,7 +5506,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A2677F-57C4-BC46-B529-6DA17534DEE6}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+    <sheetView zoomScale="177" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F294"/>
     </sheetView>
   </sheetViews>
@@ -12059,8 +12059,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96182DA-D5F3-6342-8437-6603F191FEAF}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J2" sqref="I2:J312"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12564,12 +12564,6 @@
         <f>2200-1800+A24</f>
         <v>2203</v>
       </c>
-      <c r="E24">
-        <v>2687</v>
-      </c>
-      <c r="F24">
-        <v>2203</v>
-      </c>
       <c r="I24" s="11" t="s">
         <v>1407</v>
       </c>
@@ -12592,12 +12586,6 @@
         <f t="shared" ref="D25:D26" si="3">2200-1800+A25</f>
         <v>2178</v>
       </c>
-      <c r="E25">
-        <v>2388</v>
-      </c>
-      <c r="F25">
-        <v>2178</v>
-      </c>
       <c r="I25" s="11" t="s">
         <v>1409</v>
       </c>
@@ -12620,12 +12608,6 @@
         <f t="shared" si="3"/>
         <v>1532</v>
       </c>
-      <c r="E26">
-        <v>2101</v>
-      </c>
-      <c r="F26">
-        <v>1532</v>
-      </c>
       <c r="I26" s="11" t="s">
         <v>1279</v>
       </c>
@@ -12634,6 +12616,20 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>D27-400</f>
+        <v>1803</v>
+      </c>
+      <c r="B27">
+        <f>4000-C27</f>
+        <v>1313</v>
+      </c>
+      <c r="C27">
+        <v>2687</v>
+      </c>
+      <c r="D27">
+        <v>2203</v>
+      </c>
       <c r="I27" s="11" t="s">
         <v>1460</v>
       </c>
@@ -12642,6 +12638,20 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" ref="A28:A30" si="4">D28-400</f>
+        <v>1778</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B30" si="5">4000-C28</f>
+        <v>1612</v>
+      </c>
+      <c r="C28">
+        <v>2388</v>
+      </c>
+      <c r="D28">
+        <v>2178</v>
+      </c>
       <c r="I28" s="11" t="s">
         <v>1340</v>
       </c>
@@ -12650,6 +12660,20 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>1132</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>1899</v>
+      </c>
+      <c r="C29">
+        <v>2101</v>
+      </c>
+      <c r="D29">
+        <v>1532</v>
+      </c>
       <c r="I29" s="11" t="s">
         <v>1405</v>
       </c>
@@ -12658,6 +12682,20 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>1213</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>2113</v>
+      </c>
+      <c r="C30">
+        <v>1887</v>
+      </c>
+      <c r="D30">
+        <v>1613</v>
+      </c>
       <c r="I30" s="11" t="s">
         <v>1463</v>
       </c>
@@ -43929,11 +43967,11 @@
         <v>55244</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" ref="I322:I385" si="32">PI()*H322/43200</f>
+        <f t="shared" ref="I322:I335" si="32">PI()*H322/43200</f>
         <v>4.0174570498822808</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" ref="J322:J385" si="33">1800-SIN(I322)*G322</f>
+        <f t="shared" ref="J322:J335" si="33">1800-SIN(I322)*G322</f>
         <v>1922.8106413986436</v>
       </c>
       <c r="K322" s="1">

--- a/about/Tables.xlsx
+++ b/about/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonastochtermann/Documents/reactProjects/astro-clock/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB2F4EE2-7EC6-4D46-A947-90E9B8ECC1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BFE76F60-9135-CD41-8CE7-29285590C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27020" windowHeight="14240" activeTab="10" xr2:uid="{4C085361-8A32-0448-A64D-A698D9A2BF64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27020" windowHeight="14240" activeTab="4" xr2:uid="{4C085361-8A32-0448-A64D-A698D9A2BF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Stars" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Tabelle7" sheetId="7" r:id="rId9"/>
     <sheet name="Tabelle8" sheetId="8" r:id="rId10"/>
     <sheet name="Tabelle9" sheetId="9" r:id="rId11"/>
+    <sheet name="Tabelle10" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5039,7 +5040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5133,6 +5134,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5154,7 +5161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5170,6 +5177,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12059,7 +12067,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96182DA-D5F3-6342-8437-6603F191FEAF}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:B30"/>
     </sheetView>
   </sheetViews>
@@ -14963,6 +14971,102 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J312">
     <sortCondition descending="1" ref="J2:J312"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13151DC5-C70F-344D-A9E9-F3DEC73D9655}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="15">
+        <v>23.436205999999999</v>
+      </c>
+      <c r="B1">
+        <f>32/60/2</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>A1+B1</f>
+        <v>23.702872666666664</v>
+      </c>
+      <c r="B2">
+        <f>TAN(PI()/4-A2*PI()/360)*1000</f>
+        <v>653.10025944960739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A1-B1</f>
+        <v>23.169539333333333</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">TAN(PI()/4-A3*PI()/360)*1000</f>
+        <v>659.7599692393278</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>6.6597097897204094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>-A3</f>
+        <v>-23.169539333333333</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1515.7027504305131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>-A2</f>
+        <v>-23.702872666666664</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1531.1584791632731</v>
+      </c>
+      <c r="C5">
+        <f>B5-B4</f>
+        <v>15.455728732760008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>B1</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>995.35658599438909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>-B1</f>
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1004.6650758843092</v>
+      </c>
+      <c r="C7">
+        <f>B7-B6</f>
+        <v>9.3084898899201107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15708,8 +15812,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D670EE4-2A0E-9243-9350-3D637157F339}">
   <dimension ref="A1:N312"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N312"/>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44568,7 +44672,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0AE6B-ADB1-D444-AD4B-BF7FC525616B}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F40"/>
     </sheetView>
   </sheetViews>
